--- a/src/product.xlsx
+++ b/src/product.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swagg\IdeaProjects\CmdShop\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5FF0E0-3B61-4084-B952-DC6999B9CAFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935E2170-F862-4E7B-9BB2-443791E2DBE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2448" yWindow="3996" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>商品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,6 +61,27 @@
   </si>
   <si>
     <t>（ 2020年新款 256G WLAN版/A14芯片/触控ID/全面屏MYFY2CH/A）天蓝色</t>
+  </si>
+  <si>
+    <t>jd003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联想(Lenovo)拯救者Y7000P</t>
+  </si>
+  <si>
+    <t>英特尔酷睿i7 15.6英寸游戏笔记本电脑(8核i7-10875H 16G 512G RTX2060 144Hz)灰</t>
+  </si>
+  <si>
+    <t>jd004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三星 (SAMSUNG)电脑显示器（C27R502FHC）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27英寸 1800R曲面 FHD高清 爱眼 窄边框 FreeSync 可壁挂</t>
   </si>
 </sst>
 </file>
@@ -385,15 +406,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.88671875" customWidth="1"/>
+    <col min="2" max="2" width="40.109375" customWidth="1"/>
     <col min="4" max="4" width="67.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -437,6 +458,34 @@
       </c>
       <c r="D3" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>8499</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>1099</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/product.xlsx
+++ b/src/product.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swagg\IdeaProjects\CmdShop\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935E2170-F862-4E7B-9BB2-443791E2DBE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3EB7B7-F338-4448-AB98-11E93FF69BD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,6 +88,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -124,8 +127,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -409,12 +413,13 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C3" sqref="C3:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="40.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="67.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -439,7 +444,7 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>11999</v>
       </c>
       <c r="D2" t="s">
@@ -453,7 +458,7 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>5999</v>
       </c>
       <c r="D3" t="s">
@@ -467,7 +472,7 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>8499</v>
       </c>
       <c r="D4" t="s">
@@ -481,7 +486,7 @@
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>1099</v>
       </c>
       <c r="D5" t="s">

--- a/src/product.xlsx
+++ b/src/product.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swagg\IdeaProjects\CmdShop\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3EB7B7-F338-4448-AB98-11E93FF69BD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822AF339-D461-44E8-A664-2210B23CFCA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3144" yWindow="3432" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>商品ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,35 +46,19 @@
     <t>联想ThinkPad X1 Carbon 2020</t>
   </si>
   <si>
-    <t>jd001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>英特尔酷睿i7 14英寸轻薄笔记本电脑(十代i7 16G 512G)4G版 沉浸黑</t>
   </si>
   <si>
-    <t>jd002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Apple iPad Air 10.9英寸 平板电脑</t>
   </si>
   <si>
     <t>（ 2020年新款 256G WLAN版/A14芯片/触控ID/全面屏MYFY2CH/A）天蓝色</t>
   </si>
   <si>
-    <t>jd003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>联想(Lenovo)拯救者Y7000P</t>
   </si>
   <si>
     <t>英特尔酷睿i7 15.6英寸游戏笔记本电脑(8核i7-10875H 16G 512G RTX2060 144Hz)灰</t>
-  </si>
-  <si>
-    <t>jd004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>三星 (SAMSUNG)电脑显示器（C27R502FHC）</t>
@@ -413,7 +397,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -438,8 +422,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
+      <c r="A2">
+        <v>1111</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -448,49 +432,49 @@
         <v>11999</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
+      <c r="A3">
+        <v>2222</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1">
         <v>5999</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
+      <c r="A4">
+        <v>3333</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
         <v>8499</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
+      <c r="A5">
+        <v>4444</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
         <v>1099</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
